--- a/Mobile.Web.Api/wwwroot/SiparisVerileri.xlsx
+++ b/Mobile.Web.Api/wwwroot/SiparisVerileri.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="R4156ede0cd2a4d22"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" r:id="Rce89130a228c4070"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -21,6 +21,9 @@
         <x:v>Barcode</x:v>
       </x:c>
       <x:c t="str">
+        <x:v>SetValue</x:v>
+      </x:c>
+      <x:c t="str">
         <x:v>Price</x:v>
       </x:c>
       <x:c t="str">
@@ -35,22 +38,25 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1004836</x:v>
+        <x:v>7096875</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>TDBX antaro D yükseklik için yan kapama bağlantı Gri</x:v>
+        <x:v>CLIP top 107°, Düz menteşe</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>9002617883336</x:v>
+        <x:v>9009494470550</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>5,26</x:v>
+        <x:v>set123</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>2</x:v>
+        <x:v>11,8212</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>2,63</x:v>
+        <x:v>12</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0,9851</x:v>
       </x:c>
       <x:c t="str">
         <x:v>EUR</x:v>
@@ -67,13 +73,16 @@
         <x:v>9009494073522</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>4,70</x:v>
+        <x:v>set12345</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>2</x:v>
+        <x:v>23,5060</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>2,35</x:v>
+        <x:v>10</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2,3506</x:v>
       </x:c>
       <x:c t="str">
         <x:v>EUR</x:v>
@@ -90,13 +99,16 @@
         <x:v>9009494076097</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>7,62</x:v>
+        <x:v>set12345</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>3</x:v>
+        <x:v>284,2000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>2,54</x:v>
+        <x:v>112</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>2,5375</x:v>
       </x:c>
       <x:c t="str">
         <x:v>EUR</x:v>
@@ -104,22 +116,25 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>4243508</x:v>
+        <x:v>7096875</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>CLIP top  BLUMOTION 107°, Düz menteşe</x:v>
+        <x:v>CLIP top 107°, Düz menteşe</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>9009494073522</x:v>
+        <x:v>9009494470550</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>4,70</x:v>
+        <x:v/>
       </x:c>
       <x:c t="str">
-        <x:v>2</x:v>
+        <x:v>16,7467</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>2,35</x:v>
+        <x:v>17</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0,9851</x:v>
       </x:c>
       <x:c t="str">
         <x:v>EUR</x:v>
@@ -127,76 +142,7 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>3005399</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>CLIP top  BLUMOTION 107°, Y.D.B. Menteşe</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>9009494076097</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>7,62</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>2,54</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>EUR</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>4243508</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>CLIP top  BLUMOTION 107°, Düz menteşe</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>9009494073522</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>4,70</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>2,35</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>EUR</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>3005399</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>CLIP top  BLUMOTION 107°, Y.D.B. Menteşe</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>9009494076097</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>7,62</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>2,54</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>EUR</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>TOPLAM TUTAR : 42,22 : EUR. </x:v>
+        <x:v>TOPLAM TUTAR : 336,2739 : EUR. </x:v>
       </x:c>
     </x:row>
   </x:sheetData>
